--- a/bots/crawl_ch/output/electronics_2022-07-12.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,48 +579,50 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6863443</t>
+          <t>4090845</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 18 Stück</t>
+          <t>Prix Garantie Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-18-stueck/p/6863443</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/prix-garantie-batterien-aalr6-10-stueck/p/4090845</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18ST</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.11/1ST</t>
+          <t>0.48/1ST</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -630,7 +632,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -645,55 +647,55 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 18 Stück 44% Aktion 19.95 Schweizer Franken statt 35.75 Schweizer Franken</t>
+          <t>Prix Garantie Batterien AA/LR6 10 Stück 4.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4090845</t>
+          <t>4488074</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AA/LR6 10 Stück</t>
+          <t>Varta Knopfzellen CR2032 2 Stück</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/prix-garantie-batterien-aalr6-10-stueck/p/4090845</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2032-2-stueck/p/4488074</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.48/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -703,7 +705,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -713,60 +715,58 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AA/LR6 10 Stück 4.75 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2032 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4488074</t>
+          <t>5920020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2032 2 Stück</t>
+          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2032-2-stueck/p/4488074</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/basic-alkaline-batterien-lr6aa-12-stueck/p/5920020</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>0.83/1ST</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -786,34 +786,34 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2032 2 Stück 8.95 Schweizer Franken</t>
+          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5920020</t>
+          <t>5920351</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück</t>
+          <t>BASIC Alkaline Batterien LR03/AAA 12 Stück</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/basic-alkaline-batterien-lr6aa-12-stueck/p/5920020</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/basic-alkaline-batterien-lr03aaa-12-stueck/p/5920351</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -821,9 +821,11 @@
           <t>12ST</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -857,60 +859,60 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück 9.95 Schweizer Franken</t>
+          <t>BASIC Alkaline Batterien LR03/AAA 12 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5920351</t>
+          <t>4014528</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR03/AAA 12 Stück</t>
+          <t>Varta Longlife Batterien AAA/LR03 10 Stück</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/basic-alkaline-batterien-lr03aaa-12-stueck/p/5920351</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-batterien-aaalr03-10-stueck/p/4014528</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.83/1ST</t>
+          <t>1.70/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -920,7 +922,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -935,34 +937,34 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR03/AAA 12 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AAA/LR03 10 Stück 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4014528</t>
+          <t>6762335</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AAA/LR03 10 Stück</t>
+          <t>Duracell Batterien Optimum AA/LR6 8 Stück</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-batterien-aaalr03-10-stueck/p/4014528</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-8-stueck/p/6762335</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -973,17 +975,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.70/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -993,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1003,60 +1005,60 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AAA/LR03 10 Stück 16.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6762335</t>
+          <t>4905479</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 8 Stück</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-8-stueck/p/6762335</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1066,7 +1068,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1081,55 +1083,53 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 8 Stück 19.95 Schweizer Franken</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4905479</t>
+          <t>6762336</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
-      </c>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1149,58 +1149,60 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6762336</t>
+          <t>4905467</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
+          <t>Alkaline Batterie AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/alkaline-batterie-aaalr03-4-stueck/p/4905467</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1210,7 +1212,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1225,38 +1227,38 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
+          <t>Alkaline Batterie AAA/LR03 4 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4905467</t>
+          <t>4905482</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie AAA/LR03 4 Stück</t>
+          <t>Alkaline Batterie LR14/C 2 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/alkaline-batterie-aaalr03-4-stueck/p/4905467</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>4.5</v>
@@ -1273,7 +1275,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>2.48/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,7 +1285,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1293,34 +1295,34 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie AAA/LR03 4 Stück 4.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4905482</t>
+          <t>6153846</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1329,24 +1331,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1356,7 +1358,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1371,55 +1373,55 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6153846</t>
+          <t>4905485</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
+          <t>Alkaline Batterie 6LP3146/9V</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1429,7 +1431,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1444,55 +1446,53 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4905485</t>
+          <t>4949707</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V</t>
+          <t>Varta Knopfzellen CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1517,34 +1517,34 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4949707</t>
+          <t>6753556</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1553,17 +1553,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1583,17 +1583,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1666,29 +1666,29 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6753556</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1727,58 +1727,60 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1790,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1803,55 +1805,53 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1871,17 +1871,17 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1952,48 +1952,50 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2003,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2013,34 +2015,34 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2061,12 +2063,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2078,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2091,55 +2093,53 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2164,53 +2164,55 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2220,7 +2222,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2230,46 +2232,44 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>3494234</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Varta Electronics V13GA 1er Bli</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>3</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2303,39 +2303,39 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3494234</t>
+          <t>6577801</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2379,39 +2379,41 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6577801</t>
+          <t>6753554</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2420,12 +2422,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2435,7 +2437,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2445,34 +2447,34 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6753554</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2484,21 +2486,21 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2508,7 +2510,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2523,29 +2525,29 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2557,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2566,12 +2568,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2581,7 +2583,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2596,55 +2598,55 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>19.95/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2654,7 +2656,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2664,47 +2666,47 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>4905484</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>Alkaline Batterie LR20/D 2 Stück</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
         <v>5</v>
       </c>
-      <c r="F32" t="n">
-        <v>4</v>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -2712,12 +2714,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>19.95/1ST</t>
+          <t>2.98/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2727,7 +2729,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2737,90 +2739,68 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4905484</t>
+          <t>6508223</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück</t>
+          <t>satrap Venti WS Standventilator</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2.98/1ST</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
+          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2891,39 +2871,41 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6508223</t>
+          <t>6284849</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator</t>
+          <t>Trend Ladekabel Lightning 3m</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-ladekabel-lightning-3m/p/6284849</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2937,98 +2919,112 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Trend Ladekabel Lightning 3m 50% Aktion 11.45 Schweizer Franken statt 22.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6284849</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Trend Ladekabel Lightning 3m</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-ladekabel-lightning-3m/p/6284849</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8ST</t>
+        </is>
+      </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11.45</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.87/1ST</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Trend Ladekabel Lightning 3m 50% Aktion 11.45 Schweizer Franken statt 22.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3036,119 +3032,123 @@
           <t>14.95</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1.87/1ST</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>3.95/1ST</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3157,12 +3157,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.95/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3182,113 +3182,95 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3297,7 +3279,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3311,46 +3293,44 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>3</v>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3359,139 +3339,141 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>3.98/1ST</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3564,32 +3546,32 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3598,7 +3580,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3607,34 +3589,34 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3642,16 +3624,16 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3660,175 +3642,175 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>6848736</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6848736</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>119.00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3837,192 +3819,210 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>119.00</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4073,24 +4073,24 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -4114,58 +4114,60 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4175,7 +4177,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4190,102 +4192,80 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>349.50</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -4295,12 +4275,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>349.50</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -4309,17 +4289,17 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4350,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4443,80 +4423,100 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>59.95</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4525,17 +4525,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4555,34 +4555,34 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4590,23 +4590,25 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4616,7 +4618,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4626,17 +4628,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4707,50 +4709,50 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4760,7 +4762,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4775,117 +4777,97 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>6872591</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Bosch</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>239.50</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6872591</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>239.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4894,51 +4876,49 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4947,34 +4927,34 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6689619</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Philips Dampfstation HI5919/31</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4984,7 +4964,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4998,34 +4978,34 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Philips Dampfstation HI5919/31 28% Aktion 99.90 Schweizer Franken statt 139.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6689619</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -5035,12 +5015,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5049,49 +5029,51 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31 28% Aktion 99.90 Schweizer Franken statt 139.00 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5100,42 +5082,40 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>7</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -5144,7 +5124,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5158,29 +5138,29 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -5195,7 +5175,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5204,34 +5184,34 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5246,7 +5226,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5260,29 +5240,29 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>6634107</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Trend Bluetooth Lautsprecher E100 Grün</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-bluetooth-lautsprecher-e100-gruen/p/6634107</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5292,12 +5272,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5306,34 +5286,34 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Trend Bluetooth Lautsprecher E100 Grün 50% Aktion 19.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6634107</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Trend Bluetooth Lautsprecher E100 Grün</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-bluetooth-lautsprecher-e100-gruen/p/6634107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5357,40 +5337,42 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Trend Bluetooth Lautsprecher E100 Grün 50% Aktion 19.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5399,7 +5381,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5413,37 +5395,35 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5452,7 +5432,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5466,29 +5446,29 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -5503,7 +5483,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5517,35 +5497,37 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5554,7 +5536,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5568,87 +5550,105 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>24ST</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5657,17 +5657,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5687,34 +5687,34 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5758,39 +5758,39 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5804,12 +5804,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5829,34 +5829,34 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5900,39 +5900,39 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5971,39 +5971,39 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -6017,12 +6017,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6042,39 +6042,39 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6113,88 +6113,17 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>3591272</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>2022-07-12 07:04:14</t>
+          <t>2022-07-12 20:57:57</t>
         </is>
       </c>
     </row>
